--- a/Python_output_files/Tables/differential_glycomics.xlsx
+++ b/Python_output_files/Tables/differential_glycomics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,1733 +487,2539 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05051458437554674</v>
+        <v>0.021744934540226</v>
       </c>
       <c r="C2" t="n">
-        <v>1.873019126758487</v>
+        <v>1.873845045285937</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1028196459607894</v>
+        <v>0.0954902828309664</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8769301445023883</v>
+        <v>0.9001625508739375</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9013830069882628</v>
+        <v>0.9084063853256183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.291940185605203</v>
+        <v>1.569362252340536</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.08565940698849772</v>
+        <v>0.2132301436573076</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7219698689059559</v>
+        <v>0.1158810173302006</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.1815875738102411</v>
+        <v>0.8386123829598201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.8998239193295872</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-6)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.477276852408147</v>
+        <v>0.08874480294374261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1110417809458317</v>
+        <v>0.3576220121378542</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7229464274214363</v>
+        <v>0.1236865430398167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1819609702456346</v>
+        <v>0.829439890456912</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.8998239193295872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9672883403055691</v>
+        <v>0.1898724804170452</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1306617328332886</v>
+        <v>-0.3741068303070103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7235428255685079</v>
+        <v>0.1777910544863522</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1806932701960269</v>
+        <v>-0.7096227523103659</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.8691078183061329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
+          <t>Terminal_GalNAc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1650781327994303</v>
+        <v>0.2611991622186624</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2071359776648743</v>
+        <v>-0.3231473762059878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7263379235060508</v>
+        <v>0.2214938142421878</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.1788056714575365</v>
+        <v>-0.6408890950580147</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.8448183187487692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GlcNAc</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5923638599339671</v>
+        <v>0.3000952365827463</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.07333645701393809</v>
+        <v>-0.3538486275468102</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7294132406286067</v>
+        <v>0.2237414271415213</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1764709385627792</v>
+        <v>-0.6372731543545773</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.8448183187487692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.190117574227251</v>
+        <v>0.2725311049175227</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09084485062453274</v>
+        <v>-0.1701995553171924</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7303845367160388</v>
+        <v>0.3570650264664719</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.175856774467051</v>
+        <v>-0.4764630164257232</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.76117866093553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.694601284562009</v>
+        <v>10.95849159278314</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.06269230565908135</v>
+        <v>-0.161993970829327</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7381009702471348</v>
+        <v>0.3718997278941778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1709409201352755</v>
+        <v>-0.4614417788015625</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1813718280770663</v>
+        <v>8.683040418796956</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2176326769971892</v>
+        <v>-0.1542735354716056</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7656141251508356</v>
+        <v>0.3836759385627958</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1519936332481009</v>
+        <v>-0.4497958586948387</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.792724493344939</v>
+        <v>0.008116600605377116</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.08347437860153484</v>
+        <v>-0.1109033497364353</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7808096204154769</v>
+        <v>0.3922656639647565</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1420793240260701</v>
+        <v>-0.4417330784574094</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
+          <t>Terminal_Fuc(a1-3)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.162762255174137</v>
+        <v>0.3470797183803081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3056665973178093</v>
+        <v>-0.190006001076866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7892011106197455</v>
+        <v>0.3962282056367821</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1362621086872228</v>
+        <v>-0.4391270656292698</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.486103753111081</v>
+        <v>0.338963117774931</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05432821786076314</v>
+        <v>-0.1913884058360056</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7981342101125196</v>
+        <v>0.3988766671711684</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H13" t="n">
-        <v>0.130355858244275</v>
+        <v>-0.4366400444549519</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.09793779109892785</v>
+        <v>0.3158105710105757</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1310720568128965</v>
+        <v>-0.149009558472756</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7180802131654214</v>
+        <v>0.4048276502799619</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1842461952916662</v>
+        <v>-0.4294978041506611</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.237632507509572</v>
+        <v>0.5887016900746443</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09798603844947718</v>
+        <v>0.2715563433070067</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8059410374594147</v>
+        <v>0.4143164052825494</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1252549271930515</v>
+        <v>0.4207610066735187</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.669074421229828</v>
+        <v>0.2359904718769258</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04745257714029183</v>
+        <v>0.3697638347253951</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8471285496580528</v>
+        <v>0.4205618217892325</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.09837440880457528</v>
+        <v>0.4149442153249849</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
+          <t>Terminal_GlcNAc(b1-6)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.629621095297497</v>
+        <v>1.134499710206423</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04243467559382585</v>
+        <v>-0.1321021818809243</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8677684329323787</v>
+        <v>0.4215777054595594</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.08491552663467535</v>
+        <v>-0.4145016608481403</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.780987700317664</v>
+        <v>15.76286398514089</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04545698608981574</v>
+        <v>-0.1305291446530781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8859798763057212</v>
+        <v>0.4258599924839965</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07301657560203033</v>
+        <v>-0.4102380043605343</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.462115952130555</v>
+        <v>16.34736391505043</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02525126291377955</v>
+        <v>-0.1288790166470939</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8898393355680631</v>
+        <v>0.432780513027106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.07066563465333098</v>
+        <v>-0.4039659457280985</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.431828169641555</v>
+        <v>0.1339997368070332</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.02469197728968187</v>
+        <v>0.7621245803338359</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8926117640880085</v>
+        <v>0.4379948602361032</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.06886875342190893</v>
+        <v>0.4099850889227588</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
+          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01099472768296224</v>
+        <v>0.1204155313233708</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04535919277493905</v>
+        <v>-0.1998232434743892</v>
       </c>
       <c r="D21" t="n">
-        <v>0.902188914621156</v>
+        <v>0.4682390064049012</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H21" t="n">
-        <v>0.06263258550331073</v>
+        <v>-0.3734575770854086</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
+          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.536725563949628</v>
+        <v>0.02160210605444663</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0251452158092933</v>
+        <v>-0.1377022133259054</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9211342417785117</v>
+        <v>0.4683425867015398</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F22" t="b">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0504381879534798</v>
+        <v>-0.373148898737501</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
+          <t>Terminal_GlcNAc(b1-?)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.808709769816261</v>
+        <v>1.156244644746649</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01205381522094839</v>
+        <v>-0.1079124959352429</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9232279321982555</v>
+        <v>0.4944071602122446</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.04906031673534711</v>
+        <v>-0.3514772705778881</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02254445552018082</v>
+        <v>0.1335303744897363</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.01759291170249533</v>
+        <v>0.398446900167696</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9291328180672529</v>
+        <v>0.497532568136881</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.04528934848635424</v>
+        <v>0.3494976711626018</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
+          <t>Terminal_Neu5Gc(a2-?)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.06330200642626768</v>
+        <v>0.4937955784411941</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03099318029809739</v>
+        <v>0.3057984979281034</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9463985823962454</v>
+        <v>0.5095843787825591</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03426485649541103</v>
+        <v>0.3385700455467439</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
+          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1304670999998105</v>
+        <v>0.1351340521944987</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.01206552447817735</v>
+        <v>0.2192666734659809</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9491201621349427</v>
+        <v>0.515131219479257</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.03248302801141008</v>
+        <v>0.3340638624159585</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2656058644357366</v>
+        <v>0.2418586863862179</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.05623378013572056</v>
+        <v>0.2013613028990417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8133051514327038</v>
+        <v>0.5476576144224863</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.1203602877824108</v>
+        <v>0.3081698104774593</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
+          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8553001454914188</v>
+        <v>0.02723961047723683</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1408215911590491</v>
+        <v>-0.3621205923732413</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7155469746392839</v>
+        <v>0.5520510688724607</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1861557720271309</v>
+        <v>-0.3055912209292131</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6966173854733458</v>
+        <v>1.188750137514103</v>
       </c>
       <c r="C29" t="n">
-        <v>0.134530461698918</v>
+        <v>-0.1142730288851341</v>
       </c>
       <c r="D29" t="n">
-        <v>0.712438241445287</v>
+        <v>0.5540753907386302</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H29" t="n">
-        <v>0.188178902781794</v>
+        <v>-0.3048234986613206</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
+          <t>Terminal_HexNAc(b1-4)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.646729122168789</v>
+        <v>0.531008438797241</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.07380208747800765</v>
+        <v>-0.1149390343743182</v>
       </c>
       <c r="D30" t="n">
-        <v>0.695868154289494</v>
+        <v>0.5616287283774463</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.1999598707390912</v>
+        <v>-0.2972946743927719</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-2)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5985132187240174</v>
+        <v>0.6799225751044012</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3639745605620635</v>
+        <v>0.1932934408848297</v>
       </c>
       <c r="D31" t="n">
-        <v>0.146806679343046</v>
+        <v>0.5807918359096278</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.7682454797479311</v>
+        <v>0.2828030392875958</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8782678035714324</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)[Neu5Ac(a2-6)]GalNAc</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4351677877005291</v>
+        <v>0.04260526497204182</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3919683875208106</v>
+        <v>-0.1836459979207813</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1522118215058529</v>
+        <v>0.6004741206179229</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.7577684446522315</v>
+        <v>-0.2679277844115251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8782678035714324</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-3)GlcNAc</t>
+          <t>Terminal_Man(?1-?)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6954645268823381</v>
+        <v>0.1544912816068546</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.3486720554822305</v>
+        <v>0.1759167526569827</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2256342772466905</v>
+        <v>0.6283285333316211</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H33" t="n">
-        <v>-0.6347594463179136</v>
+        <v>0.2475167050246831</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8456919121147407</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.7826163240022134</v>
+        <v>1.423708844602082</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2594414519513988</v>
+        <v>0.1766308442327968</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2592053438029891</v>
+        <v>0.6291630603456198</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H34" t="n">
-        <v>-0.5914696001440313</v>
+        <v>0.2470410958151227</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8363894438200564</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-3)GlcNAc(b1-6)GalNAc</t>
+          <t>Terminal_Man(a1-?)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01860957290292927</v>
+        <v>1.521081560830018</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.125169151953866</v>
+        <v>0.1765672590013097</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3106860134135391</v>
+        <v>0.6318506346464079</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.5259360614988018</v>
+        <v>0.2451228437202013</v>
       </c>
       <c r="I35" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-?)[Fuc(a1-?)]GalNAc</t>
+          <t>Terminal_Man(a1-2)Man(a1-3)Man</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.04951502512540728</v>
+        <v>0.3029298365236845</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1875409929497716</v>
+        <v>0.1748224049537335</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3167228450483719</v>
+        <v>0.6358192631177868</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.5206234772010199</v>
+        <v>0.2421920717324034</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-2)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.92277344032811</v>
+        <v>0.0948650059901292</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1672468928813382</v>
+        <v>0.2410613414206831</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3465669549318012</v>
+        <v>0.6388960082565436</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.4871054529344474</v>
+        <v>0.2400415475713246</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-3)[GlcNAc(b1-6)]GalNAc</t>
+          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.7238940327702184</v>
+        <v>0.07132668180161726</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1402783757523789</v>
+        <v>-0.1528215127731859</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3726555879757532</v>
+        <v>0.6406663867503366</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H38" t="n">
-        <v>-0.46165096750903</v>
+        <v>-0.2394876675310495</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5446564642806101</v>
+        <v>0.1543778903615803</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4114630804561998</v>
+        <v>0.2023177160993588</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3857561905415946</v>
+        <v>0.645944802046569</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H39" t="n">
-        <v>0.4476803404175375</v>
+        <v>0.2373704378669758</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Neu5Gc(a2-6)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.14562882604994</v>
+        <v>0.1629401005741392</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1554394507398724</v>
+        <v>0.2220971893023869</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3950260951005317</v>
+        <v>0.646916213923195</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.4389084928793155</v>
+        <v>0.2344427986760372</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Terminal_GalNAc(a1-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1633454310234881</v>
+        <v>0.01237937731624404</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.2488861428112592</v>
+        <v>-0.5446661883016284</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4025698415067228</v>
+        <v>0.6496277450831305</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H41" t="n">
-        <v>-0.432735465741945</v>
+        <v>-0.2321091528858258</v>
       </c>
       <c r="I41" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-3)Gal(b1-4)GlcNAc</t>
+          <t>Terminal_Man(a1-3)[Man(a1-6)]Man</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3069708432491347</v>
+        <v>0.3718931347488406</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4428127198286783</v>
+        <v>0.1615278586824345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4267306974684025</v>
+        <v>0.6723454498388953</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F42" t="b">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4103837415919898</v>
+        <v>0.2161879520029171</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)HexNAc(?1-?)GlcNAc</t>
+          <t>Terminal_Man(a1-3)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3168288327963634</v>
+        <v>0.4692658509767762</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7854190727134066</v>
+        <v>0.164247543974724</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4279636728824053</v>
+        <v>0.6726747279513914</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4195197719311993</v>
+        <v>0.2160359743881113</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Gal(?1-?)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.728171680408018</v>
+        <v>2.462049927923615</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1496670887473366</v>
+        <v>-0.08762018473985123</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4338581617088418</v>
+        <v>0.6766748230581106</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.4064900334623953</v>
+        <v>-0.2136477030345482</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-3)Gal</t>
+          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.6247413393915223</v>
+        <v>0.09737271622793561</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.13980647846302</v>
+        <v>0.1745863867387129</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4483560326171451</v>
+        <v>0.6785719368549196</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.3902248590314555</v>
+        <v>0.2121699005835086</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)GlcNAc(b1-?)GalNAc</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2757948239684866</v>
+        <v>0.01319985107354607</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1984771892608872</v>
+        <v>-0.1108061853480131</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4920461184043621</v>
+        <v>0.6984085226057988</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.3537021663961274</v>
+        <v>-0.1978432168817313</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)GalNAc</t>
+          <t>Terminal_Fuc(a1-?)[HexNAc(?1-?)]GalNAc</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.0302877824889998</v>
+        <v>0.009833852151252105</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1790824049376591</v>
+        <v>-0.07947921686432613</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5181942504601158</v>
+        <v>0.6998606585592444</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F47" t="b">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.3314633594373731</v>
+        <v>-0.1969122471280506</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-6)Man</t>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-3)Gal</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3106378111912705</v>
+        <v>0.5231445960111031</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1956942168641631</v>
+        <v>-0.09643105913762895</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5413556800805099</v>
+        <v>0.7103629485209939</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F48" t="b">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H48" t="n">
-        <v>0.3130533990809993</v>
+        <v>-0.1896235815627574</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-2)Man(a1-2)Man</t>
+          <t>Terminal_Fuc(a1-?)Gal(?1-?)GlcNAc</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.5560045901261579</v>
+        <v>1.852022753983109</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1980981550453926</v>
+        <v>-0.08957487684970467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5500607102071773</v>
+        <v>0.7128687541646158</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F49" t="b">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3062811261867409</v>
+        <v>-0.1878789060330965</v>
       </c>
       <c r="I49" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Terminal_HexNAc(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Gal(a1-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.06250007364369443</v>
+        <v>0.103433824544354</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3238862005098035</v>
+        <v>0.141663714947951</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5793766895440671</v>
+        <v>0.7261712908054969</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F50" t="b">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.2843344260390076</v>
+        <v>0.1787431256115547</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Ac(a2-?)Gal(b1-?)GlcNAc</t>
+          <t>Terminal_Fuc(a1-2)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3531095551998802</v>
+        <v>2.972693808835909</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2246325829982303</v>
+        <v>-0.03868168491543766</v>
       </c>
       <c r="D51" t="n">
-        <v>0.5884196196181183</v>
+        <v>0.7330539820056161</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.7936555966398511</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2800198383074619</v>
+        <v>-0.1740468954546244</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Terminal_Neu5Gc(a2-3)Gal(b1-3)GalNAc</t>
+          <t>Terminal_Neu5Ac(a2-3)Gal(b1-3)GalNAc</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2183501637641838</v>
+        <v>0.4205906211308951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2298134300501513</v>
+        <v>0.1259689218718427</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6423159393685738</v>
+        <v>0.7332048700250409</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2374721617712977</v>
+        <v>0.1740742793693953</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-3)Man(b1-4)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2239537922744563</v>
+        <v>1.315147139969224</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1815966571637984</v>
+        <v>-0.04664965437628243</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6589968054490829</v>
+        <v>0.7462032382526362</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F53" t="b">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H53" t="n">
-        <v>0.225962062057368</v>
+        <v>-0.165385590833297</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Terminal_Man(a1-?)Man(a1-?)Man</t>
+          <t>Terminal_GalOS(b1-3)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.273860077773611</v>
+        <v>0.004334477537825417</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1554508009023987</v>
+        <v>0.2280636621350967</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6702015439461878</v>
+        <v>0.7519550649893044</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2176573462875925</v>
+        <v>0.1619855356243688</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terminal_Fuc(a1-?)[Gal(?1-?)]GlcNAc</t>
+          <t>Terminal_Fuc(a1-?)GlcNAc(b1-?)GalNAc</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02836827181330629</v>
+        <v>0.07943265213411627</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.4859838728710386</v>
+        <v>0.2255145702517959</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6847753624176822</v>
+        <v>0.7576050891475725</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H55" t="n">
-        <v>-0.2072596326709459</v>
+        <v>0.1573705752977264</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
+          <t>Terminal_Gal(b1-3)[GlcNAcOS(b1-6)]GalNAc</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0889099501964167</v>
+        <v>0.02751273988583763</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.009307861350253077</v>
+        <v>0.1362348662491581</v>
       </c>
       <c r="D56" t="n">
-        <v>0.958186368210148</v>
+        <v>0.762366044205002</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9756079385412416</v>
+        <v>0.9653006976338117</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9959171131525424</v>
+        <v>0.9906898655390409</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.02671491585453637</v>
+        <v>0.1543141060249422</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8097810151241018</v>
+        <v>0.7602867441737675</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.7822005942656408</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.08839371822439057</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.7639153771381602</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.1535068485785605</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Terminal_Neu5Ac(a2-?)Gal(?1-?)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6294655155251782</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.09984856919898633</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.7650761244965439</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.1532456262736619</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(b1-?)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3.540613307105008</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-0.04843984716187499</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.7749845617527158</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.1462663668497462</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Terminal_Fuc(a1-2)[Gal(a1-3)]Gal</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.07182298383047074</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-0.1711188808586722</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.7765337925469451</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.1449269042746949</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)Gal</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.714951199231164</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-0.07028132133666976</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.778813454820759</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.143488233847533</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(b1-4)</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2.033659563915724</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-0.05127829269175432</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.7796482098507971</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-0.1430930028676499</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.497315116831074</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-0.05023404279107879</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.7859126378046093</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.1386693874635949</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(b1-?)GlcNAc(b1-?)GalNAc</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1.51051496790462</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-0.05006386143845276</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.7861117899620357</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.1385446336106482</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Terminal_HexNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.2584773338797183</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-0.05928183163805478</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.788708231392987</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.1365873459200197</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Terminal_GalNAc(b1-?)[Fuc(a1-?)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.07131605152873914</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2855736633145503</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.8068468763713172</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.1245976871710711</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Gal</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.165231582045334</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-0.05854567477742822</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.8103260386416477</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.1225617083447108</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>Terminal_Neu5Ac(a2-3)[GalNAc(b1-4)]Gal</t>
         </is>
       </c>
-      <c r="B57" t="n">
-        <v>0.122988839810348</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.0003839214875152319</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9987336846396105</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.9987336846396105</v>
-      </c>
-      <c r="F57" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.9959171131525424</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.0008079314993546357</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.8097810151241018</v>
+      <c r="B68" t="n">
+        <v>0.05357787355101201</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-0.0601129608623111</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.8132563346931594</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-0.1204256064682556</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(?1-?)Gal(?1-?)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.03876649365159199</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.04153473557969867</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.8274311594444536</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.1110667162306388</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Terminal_GlcNAc(a1-4)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2.712878318840167</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-0.0517214765470575</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.8467674118301152</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-0.09853429569255798</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Terminal_GlcNAc(a1-?)Gal(?1-?)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.212707385364639</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-0.06000297456319359</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.8485005420931573</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H71" t="n">
+        <v>-0.09730738070018441</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Terminal_GalNAc(b1-4)GlcNAc(b1-6)GalNAc</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1.084762487354701</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.03558951567015978</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.8555488438180263</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.09285285730454959</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Terminal_GalNAc(b1-4)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1.138340360905713</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.03363331697923311</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.8586031044104383</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.09089232826587576</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Terminal_GlcNAc(a1-4)Gal(b1-3)GalNAc</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7179703392098873</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-0.02584072416304073</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.8970621118912327</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-0.06590672584053801</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Terminal_Neu5Ac(a2-6)</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.2309284885158488</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.03901828968026444</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.9181060102302574</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.05241278367935158</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Terminal_HexNAc(?1-?)</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1.730583435882129</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-0.02065115142263796</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9234493615080903</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-0.0489626541155355</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.7391421305047069</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-0.01836662006462664</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9282958088614737</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-0.04582356590774687</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Terminal_HexNAc(?1-?)Gal(b1-?)GalNAc</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.6701668295026803</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-0.02334440704859375</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.9313120576943381</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-0.04388115840414324</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Terminal_GlcNAcOS(b1-6)</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.04813298230768344</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.03482456165713926</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9341685585294852</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.04210484340001388</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(a1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1153645987974853</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-0.01859154938777663</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.9359225420256556</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-0.04092907949647041</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(a1-3)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2187984233418393</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01784640152502215</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9417567781793285</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.9653006976338117</v>
+      </c>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.03720810006167775</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(b1-3)[Neu5Gc(a2-6)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.004782269100960259</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.001633533859418446</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9965788118026861</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.9982246244873252</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.002185419697916174</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.7602867441737675</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Terminal_Gal(?1-?)GlcNAc(b1-?)Man</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.05692233739634236</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-0.0004624237810099685</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9982246244873252</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.9982246244873252</v>
+      </c>
+      <c r="F83" t="b">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.9906898655390409</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-0.001133470573217358</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.7602867441737675</v>
       </c>
     </row>
   </sheetData>
